--- a/public/sample_uploads/fund_ratios/investor_kycs.xlsx
+++ b/public/sample_uploads/fund_ratios/investor_kycs.xlsx
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t xml:space="preserve">Stakeholder</t>
   </si>
@@ -574,6 +574,9 @@
     <t xml:space="preserve">Custom field   2</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSTF3</t>
   </si>
   <si>
@@ -593,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">TSTF4</t>
@@ -742,28 +748,32 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1018,10 +1028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1045,137 +1055,146 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="11.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="21" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="2" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>33529</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>36676</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>36676</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
